--- a/Sprint2Hours_Daniel.xlsx
+++ b/Sprint2Hours_Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\IPFW\Spring 2017\CS360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcshdd01\workspace\SumFunGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Debugging/Testing/BugHunting and merge conflict</t>
+  </si>
+  <si>
+    <t>Updated coupling analysis and UML to reflect changes in code</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,36 +431,28 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42839</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42840</v>
+        <v>42839</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42841</v>
+        <v>42840</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,10 +460,32 @@
         <v>42841</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42841</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42841</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
